--- a/Table_Generate/members_IF.xlsx
+++ b/Table_Generate/members_IF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17e821e30eeff6db/Desktop/ELL305_work/Documentation_P2/Table_Generate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B0625EF9-1AC5-4797-8E7F-91E2ED783AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E855994-6405-4408-97DE-3147E5E43FBB}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B0625EF9-1AC5-4797-8E7F-91E2ED783AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F387F6-E89E-4446-B2BC-563F8BCA62A8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,6 @@
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1077,6 +1066,10 @@
 </file>
 
 <file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1404,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D74"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="97" workbookViewId="0">
+      <selection activeCell="D61" sqref="D60:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2430,7 +2423,7 @@
       <c r="C60" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="10">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2516,7 +2509,7 @@
         <v>177</v>
       </c>
       <c r="D65" s="11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>209</v>
@@ -2601,7 +2594,7 @@
         <v>177</v>
       </c>
       <c r="D70" s="11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E70" s="2" t="e">
         <v>#N/A</v>
@@ -2652,7 +2645,7 @@
         <v>177</v>
       </c>
       <c r="D73" s="11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>212</v>

--- a/Table_Generate/members_IF.xlsx
+++ b/Table_Generate/members_IF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17e821e30eeff6db/Desktop/ELL305_work/Documentation_P2/Table_Generate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B0625EF9-1AC5-4797-8E7F-91E2ED783AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F387F6-E89E-4446-B2BC-563F8BCA62A8}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B0625EF9-1AC5-4797-8E7F-91E2ED783AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45BA2AD9-4811-46B3-A7BF-9FBCEE674065}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,9 +681,6 @@
     <t>Nikhil Choudhary</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>2021EE10685</t>
   </si>
   <si>
@@ -799,6 +796,9 @@
   </si>
   <si>
     <t>https://iamsecretlyflash.github.io/</t>
+  </si>
+  <si>
+    <t>Research</t>
   </si>
 </sst>
 </file>
@@ -982,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1018,6 +1018,18 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1070,6 +1082,10 @@
 </file>
 
 <file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1397,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D61" sqref="D60:D74"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1435,13 +1451,13 @@
         <v>147</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1451,14 +1467,14 @@
       <c r="B3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>173</v>
+      <c r="C3" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D3" s="11">
         <v>0.68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1468,14 +1484,14 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>173</v>
+      <c r="C4" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D4" s="11">
         <v>0.68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1485,8 +1501,8 @@
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>173</v>
+      <c r="C5" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D5" s="11">
         <v>0.86</v>
@@ -1502,8 +1518,8 @@
       <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>173</v>
+      <c r="C6" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D6" s="11">
         <v>0.98</v>
@@ -1519,14 +1535,14 @@
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>173</v>
+      <c r="C7" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D7" s="11">
         <v>0.68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1536,14 +1552,14 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>173</v>
+      <c r="C8" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1553,8 +1569,8 @@
       <c r="B9" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>173</v>
+      <c r="C9" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D9" s="11">
         <v>0.88</v>
@@ -1570,14 +1586,14 @@
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>173</v>
+      <c r="C10" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D10" s="11">
         <v>0.68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1587,8 +1603,8 @@
       <c r="B11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>173</v>
+      <c r="C11" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
@@ -1604,8 +1620,8 @@
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>173</v>
+      <c r="C12" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D12" s="11">
         <v>0.88</v>
@@ -1621,8 +1637,8 @@
       <c r="B13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>173</v>
+      <c r="C13" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -1638,14 +1654,14 @@
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>173</v>
+      <c r="C14" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D14" s="11">
         <v>0.7</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1655,14 +1671,14 @@
       <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>173</v>
+      <c r="C15" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D15" s="11">
         <v>0.68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1672,14 +1688,14 @@
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>173</v>
+      <c r="C16" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D16" s="11">
         <v>0.86</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1689,8 +1705,8 @@
       <c r="B17" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>173</v>
+      <c r="C17" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D17" s="11">
         <v>0.92</v>
@@ -1706,8 +1722,8 @@
       <c r="B18" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>173</v>
+      <c r="C18" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D18" s="11">
         <v>1</v>
@@ -1723,8 +1739,8 @@
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>173</v>
+      <c r="C19" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D19" s="11">
         <v>0.68</v>
@@ -1740,14 +1756,14 @@
       <c r="B20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>173</v>
+      <c r="C20" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D20" s="11">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1757,14 +1773,14 @@
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>173</v>
+      <c r="C21" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D21" s="11">
         <v>0.98</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1774,14 +1790,14 @@
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>173</v>
+      <c r="C22" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D22" s="11">
         <v>0.85</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1791,14 +1807,14 @@
       <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>173</v>
+      <c r="C23" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D23" s="11">
         <v>0.7</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1808,8 +1824,8 @@
       <c r="B24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>173</v>
+      <c r="C24" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D24" s="11">
         <v>0.83</v>
@@ -1825,14 +1841,14 @@
       <c r="B25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>173</v>
+      <c r="C25" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D25" s="11">
         <v>0.7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1842,8 +1858,8 @@
       <c r="B26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>173</v>
+      <c r="C26" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D26" s="11">
         <v>0.98</v>
@@ -1859,8 +1875,8 @@
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>173</v>
+      <c r="C27" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
@@ -1876,8 +1892,8 @@
       <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>173</v>
+      <c r="C28" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D28" s="11">
         <v>0.98</v>
@@ -1893,14 +1909,14 @@
       <c r="B29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>173</v>
+      <c r="C29" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D29" s="11">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1910,14 +1926,14 @@
       <c r="B30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>173</v>
+      <c r="C30" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1927,25 +1943,25 @@
       <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>173</v>
+      <c r="C31" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D31" s="11">
         <v>0.98</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>173</v>
+      <c r="C32" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D32" s="11">
         <v>0.7</v>
@@ -1961,14 +1977,14 @@
       <c r="B33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>173</v>
+      <c r="C33" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D33" s="12">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1978,8 +1994,8 @@
       <c r="B34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>173</v>
+      <c r="C34" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D34" s="11">
         <v>1</v>
@@ -1993,16 +2009,16 @@
         <v>159</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C35" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="C35" s="13" t="s">
+        <v>212</v>
+      </c>
       <c r="D35" s="11">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2012,14 +2028,14 @@
       <c r="B36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>173</v>
+      <c r="C36" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D36" s="11">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2029,8 +2045,8 @@
       <c r="B37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>173</v>
+      <c r="C37" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
@@ -2046,14 +2062,14 @@
       <c r="B38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>173</v>
+      <c r="C38" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D38" s="11">
         <v>1</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2063,8 +2079,8 @@
       <c r="B39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>173</v>
+      <c r="C39" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D39" s="11">
         <v>0.7</v>
@@ -2080,8 +2096,8 @@
       <c r="B40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>173</v>
+      <c r="C40" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D40" s="11">
         <v>0.7</v>
@@ -2097,8 +2113,8 @@
       <c r="B41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>173</v>
+      <c r="C41" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D41" s="11">
         <v>0.4</v>
@@ -2114,8 +2130,8 @@
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>173</v>
+      <c r="C42" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
@@ -2129,16 +2145,16 @@
         <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D43" s="11">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2148,8 +2164,8 @@
       <c r="B44" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>173</v>
+      <c r="C44" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D44" s="11">
         <v>1</v>
@@ -2163,10 +2179,10 @@
         <v>23</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D45" s="11">
         <v>0.83</v>
@@ -2182,8 +2198,8 @@
       <c r="B46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>173</v>
+      <c r="C46" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D46" s="11">
         <v>0.7</v>
@@ -2199,8 +2215,8 @@
       <c r="B47" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>173</v>
+      <c r="C47" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
@@ -2216,14 +2232,14 @@
       <c r="B48" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>173</v>
+      <c r="C48" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D48" s="11">
         <v>0.7</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2233,8 +2249,8 @@
       <c r="B49" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>173</v>
+      <c r="C49" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D49" s="11">
         <v>0.98</v>
@@ -2250,8 +2266,8 @@
       <c r="B50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>173</v>
+      <c r="C50" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D50" s="11">
         <v>1</v>
@@ -2267,14 +2283,14 @@
       <c r="B51" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>173</v>
+      <c r="C51" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D51" s="11">
         <v>0.98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2284,8 +2300,8 @@
       <c r="B52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>173</v>
+      <c r="C52" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D52" s="11">
         <v>0.82</v>
@@ -2299,10 +2315,10 @@
         <v>161</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D53" s="11">
         <v>0.7</v>
@@ -2318,8 +2334,8 @@
       <c r="B54" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>173</v>
+      <c r="C54" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D54" s="11">
         <v>0.7</v>
@@ -2335,8 +2351,8 @@
       <c r="B55" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>173</v>
+      <c r="C55" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D55" s="11">
         <v>0</v>
@@ -2347,13 +2363,13 @@
     </row>
     <row r="56" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>173</v>
+      <c r="C56" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D56" s="11">
         <v>0.7</v>
@@ -2369,8 +2385,8 @@
       <c r="B57" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>173</v>
+      <c r="C57" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D57" s="11">
         <v>0.7</v>
@@ -2386,8 +2402,8 @@
       <c r="B58" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>173</v>
+      <c r="C58" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D58" s="11">
         <v>0.7</v>
@@ -2403,8 +2419,8 @@
       <c r="B59" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>173</v>
+      <c r="C59" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D59" s="12">
         <v>1</v>
@@ -2415,172 +2431,172 @@
     </row>
     <row r="60" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" s="10">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" s="11">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="11">
-        <v>1</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>207</v>
+        <v>85</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="14">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="11">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>120</v>
+        <v>176</v>
+      </c>
+      <c r="D62" s="15">
+        <v>1</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D63" s="11">
-        <v>0.98</v>
+        <v>176</v>
+      </c>
+      <c r="D63" s="15">
+        <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D64" s="11">
-        <v>1</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>208</v>
+        <v>176</v>
+      </c>
+      <c r="D64" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D65" s="11">
-        <v>1</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>209</v>
+        <v>176</v>
+      </c>
+      <c r="D65" s="15">
+        <v>1</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="E66" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="D66" s="15">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D67" s="11">
+        <v>176</v>
+      </c>
+      <c r="D67" s="15">
         <v>0.95</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>118</v>
+      <c r="E67" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" s="11">
-        <v>1</v>
+        <v>176</v>
+      </c>
+      <c r="D68" s="15">
+        <v>0.98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D69" s="11">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="D69" s="15">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2588,12 +2604,12 @@
         <v>169</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D70" s="11">
+        <v>176</v>
+      </c>
+      <c r="D70" s="15">
         <v>1</v>
       </c>
       <c r="E70" s="2" t="e">
@@ -2608,13 +2624,13 @@
         <v>89</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D71" s="11">
+        <v>176</v>
+      </c>
+      <c r="D71" s="15">
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2625,9 +2641,9 @@
         <v>88</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D72" s="11">
+        <v>176</v>
+      </c>
+      <c r="D72" s="15">
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -2642,13 +2658,13 @@
         <v>27</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D73" s="11">
+        <v>176</v>
+      </c>
+      <c r="D73" s="16">
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2659,7 +2675,7 @@
         <v>90</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="D74" s="12">
         <v>0.85</v>

--- a/Table_Generate/members_IF.xlsx
+++ b/Table_Generate/members_IF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17e821e30eeff6db/Desktop/ELL305_work/Documentation_P2/Table_Generate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\archi\OneDrive\Desktop\ELL305_work\Documentation_P2\Table_Generate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B0625EF9-1AC5-4797-8E7F-91E2ED783AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45BA2AD9-4811-46B3-A7BF-9FBCEE674065}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B1A931-8B92-416B-B55A-F172658A8E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,19 @@
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -160,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="195">
   <si>
     <t>Name</t>
   </si>
@@ -525,30 +538,6 @@
     <t>https://www.linkedin.com/in/ayush-gupta-undergraduate/</t>
   </si>
   <si>
-    <t>http://linkedin.com/in/aryan-mishra-04j</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/yash089610/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/himanshu-prajapati-400669217</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/pooja-mahajan-101b63227</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/chetan-chaurasia-561b3b228</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sheetal-manatawal-50119a236</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/khushika-shringi-205419226</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/aryan-gupta-43b283229</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/abhilasa-das-194413236</t>
   </si>
   <si>
@@ -711,101 +700,71 @@
     <t>https://github.com/Hello-3585</t>
   </si>
   <si>
-    <t>4-tohchalega</t>
-  </si>
-  <si>
     <t>https://github.com/Ameya-Mishra</t>
   </si>
   <si>
-    <t>lunatic04</t>
-  </si>
-  <si>
-    <t>https://github.com/Anshulydav</t>
-  </si>
-  <si>
-    <t>https://github.com/ArnavGoel458</t>
-  </si>
-  <si>
-    <t>https://github.com/harshswaika</t>
-  </si>
-  <si>
-    <t>https://github.com/HarshitSachdeva03</t>
-  </si>
-  <si>
-    <t>https://github.com/wm0395/</t>
-  </si>
-  <si>
-    <t>https://github.com/Kinjal001</t>
-  </si>
-  <si>
-    <t>https://github.com/maithilij2003</t>
-  </si>
-  <si>
-    <t>https://github.com/Mohitraj227</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mridulahi/</t>
-  </si>
-  <si>
-    <t>oshink</t>
-  </si>
-  <si>
-    <t>https://in.linkedin.com/in/shubh-chhabra-007197227</t>
-  </si>
-  <si>
-    <t>aggarwalshubham009</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ujjwal-yadav-880448223</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/yash-goel-6ba26322</t>
-  </si>
-  <si>
-    <t>https://github.com/Aditi188</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/advait-ninawe-7a790022</t>
-  </si>
-  <si>
-    <t>https://github.com/AyushKumar284</t>
-  </si>
-  <si>
     <t>dn09-create</t>
   </si>
   <si>
-    <t>https://github.com/kalu693</t>
-  </si>
-  <si>
-    <t>BoredApe07</t>
-  </si>
-  <si>
-    <t>https://github.com/Azm1t</t>
-  </si>
-  <si>
-    <t>github.com/2nav</t>
-  </si>
-  <si>
-    <t>Alice-Mina</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/rahul-bhardwaj-dintyala-244117202/</t>
-  </si>
-  <si>
-    <t>https://github.com/Sanjay23Pooniya</t>
-  </si>
-  <si>
-    <t>https://iamsecretlyflash.github.io/</t>
-  </si>
-  <si>
-    <t>Research</t>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>Sanjay23Pooniya</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/chetan-chaurasia-561b3b228?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app,https://github.com/chetan-chaurasia</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/himanshu-prajapati-400669217?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pooja-mahajan-101b63227?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>Yash089610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunatic04  </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aryan-gupta-43b283229?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
+    <t>Mohitraj227</t>
+  </si>
+  <si>
+    <t>mridulahi/MridulAhi</t>
+  </si>
+  <si>
+    <t>5HU8H</t>
+  </si>
+  <si>
+    <t>aggarwalshubham009@gmail.com/aggarwalshubham009</t>
+  </si>
+  <si>
+    <t>Ujjwal233</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/yash-goel-6ba26322a?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>https://github.com/2nav</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aryan-mishra-04j/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/advait-ninawe-7a790022b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -838,8 +797,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,8 +831,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -978,11 +951,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1020,20 +1039,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1047,46 +1097,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1413,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1445,750 +1455,750 @@
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>212</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D3" s="11">
-        <v>0.68</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>183</v>
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>212</v>
+        <v>81</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D4" s="11">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>212</v>
+        <v>94</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D5" s="11">
-        <v>0.86</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>212</v>
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D6" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>212</v>
+        <v>93</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D7" s="11">
-        <v>0.68</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>185</v>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>212</v>
+        <v>96</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>186</v>
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>212</v>
+        <v>95</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D9" s="11">
-        <v>0.88</v>
-      </c>
-      <c r="E9" s="2" t="e">
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>212</v>
+        <v>97</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D10" s="11">
-        <v>0.68</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>187</v>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>212</v>
+        <v>169</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>128</v>
+        <v>0.95</v>
+      </c>
+      <c r="E11" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>212</v>
+        <v>89</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D12" s="11">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>212</v>
+        <v>88</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D13" s="11">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>212</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D14" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>188</v>
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="25">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="25">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.68</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0.68</v>
+      </c>
+      <c r="E22" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0.68</v>
+      </c>
+      <c r="E23" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E27" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="25">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="E30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E31" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="B32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E33" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="25">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="25">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="E35" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="25">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="E37" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="25">
         <v>0.68</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0.86</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0.92</v>
-      </c>
-      <c r="E17" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0.68</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="11">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0.83</v>
-      </c>
-      <c r="E24" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D27" s="11">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="11">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D30" s="11">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" s="12">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D34" s="11">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" s="11">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="11">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D37" s="11">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="11">
-        <v>1</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" s="11">
-        <v>0.7</v>
-      </c>
       <c r="E40" s="2" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="E41" s="2" t="e">
-        <v>#N/A</v>
+      <c r="A41" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>212</v>
+        <v>139</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>212</v>
+        <v>99</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D43" s="11">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>203</v>
+        <v>0.65</v>
+      </c>
+      <c r="E43" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>212</v>
+        <v>5</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D44" s="11">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D45" s="11">
-        <v>0.83</v>
-      </c>
-      <c r="E45" s="2" t="e">
-        <v>#N/A</v>
+        <v>0.65</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2196,64 +2206,64 @@
         <v>131</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>212</v>
+        <v>34</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D46" s="11">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>212</v>
+        <v>24</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D47" s="11">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>212</v>
+        <v>16</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D48" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>204</v>
+        <v>0.8</v>
+      </c>
+      <c r="E48" s="8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>212</v>
+        <v>148</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D49" s="11">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="E49" s="2" t="e">
         <v>#N/A</v>
@@ -2261,101 +2271,101 @@
     </row>
     <row r="50" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>212</v>
+        <v>55</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D50" s="11">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>124</v>
+        <v>0.65</v>
+      </c>
+      <c r="E50" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>212</v>
+        <v>46</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D51" s="11">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>212</v>
+        <v>6</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D52" s="11">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>212</v>
+        <v>69</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D53" s="11">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>212</v>
+        <v>21</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D54" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>108</v>
+        <v>0.65</v>
+      </c>
+      <c r="E54" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>212</v>
+        <v>53</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D55" s="11">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="E55" s="8" t="e">
         <v>#N/A</v>
@@ -2363,50 +2373,50 @@
     </row>
     <row r="56" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>212</v>
+        <v>13</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D56" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>114</v>
+        <v>0.65</v>
+      </c>
+      <c r="E56" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>212</v>
+        <v>134</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D57" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>109</v>
+        <v>0.65</v>
+      </c>
+      <c r="E57" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>212</v>
+        <v>141</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D58" s="11">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E58" s="2" t="e">
         <v>#N/A</v>
@@ -2414,33 +2424,33 @@
     </row>
     <row r="59" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>212</v>
+        <v>25</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D59" s="12">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>212</v>
+        <v>31</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D60" s="11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E60" s="2" t="e">
         <v>#N/A</v>
@@ -2448,118 +2458,118 @@
     </row>
     <row r="61" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="14">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>178</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="E61" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D62" s="15">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="D62" s="13">
+        <v>0.8</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="15">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="D63" s="13">
+        <v>0.65</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="15">
-        <v>0.98</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>117</v>
+        <v>178</v>
+      </c>
+      <c r="D64" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="E64" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D65" s="15">
-        <v>1</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>207</v>
+        <v>178</v>
+      </c>
+      <c r="D65" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="E65" s="8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D66" s="15">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="D66" s="13">
+        <v>0.65</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>208</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D67" s="15">
-        <v>0.95</v>
+        <v>178</v>
+      </c>
+      <c r="D67" s="13">
+        <v>0.65</v>
       </c>
       <c r="E67" s="2" t="e">
         <v>#N/A</v>
@@ -2567,129 +2577,135 @@
     </row>
     <row r="68" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D68" s="15">
-        <v>0.98</v>
+        <v>178</v>
+      </c>
+      <c r="D68" s="13">
+        <v>0.8</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D69" s="15">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="D69" s="13">
+        <v>0.8</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D70" s="15">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="e">
-        <v>#N/A</v>
+        <v>178</v>
+      </c>
+      <c r="D70" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D71" s="15">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="D71" s="13">
+        <v>0.65</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D72" s="15">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="D72" s="13">
+        <v>0.65</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D73" s="16">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="D73" s="14">
+        <v>0.9</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="D74" s="12">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{53E68C14-143F-42F1-99F2-9F3CA5A87966}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{02DE4FDF-1141-4768-9C3E-9D5CC227B232}"/>
+    <hyperlink ref="E16" r:id="rId3" xr:uid="{005B8911-BEFA-480D-BA15-9BA532F281AD}"/>
+    <hyperlink ref="E18" r:id="rId4" xr:uid="{B1DC35DC-7582-41ED-86C0-55323EF88733}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <ignoredErrors>
     <ignoredError sqref="C1:D1" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>